--- a/src/data/student_list.xlsx
+++ b/src/data/student_list.xlsx
@@ -189,170 +189,170 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>41</v>
       </c>
     </row>
